--- a/data/outputs/数学期刊(上)_altmetric/41.Advances in Difference Equations.xlsx
+++ b/data/outputs/数学期刊(上)_altmetric/41.Advances in Difference Equations.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG386"/>
+  <dimension ref="A1:AH386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,6 +532,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -649,6 +654,9 @@
       <c r="AG2" t="n">
         <v>0</v>
       </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -766,6 +774,9 @@
       <c r="AG3" t="n">
         <v>0</v>
       </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -881,6 +892,9 @@
       <c r="AG4" t="n">
         <v>0</v>
       </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -998,6 +1012,9 @@
       <c r="AG5" t="n">
         <v>0</v>
       </c>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1113,6 +1130,9 @@
       <c r="AG6" t="n">
         <v>0</v>
       </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1230,6 +1250,9 @@
       <c r="AG7" t="n">
         <v>0</v>
       </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1347,6 +1370,9 @@
       <c r="AG8" t="n">
         <v>0</v>
       </c>
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1464,6 +1490,9 @@
         <v>0</v>
       </c>
       <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1583,6 +1612,9 @@
       <c r="AG10" t="n">
         <v>0</v>
       </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1700,6 +1732,9 @@
       <c r="AG11" t="n">
         <v>0</v>
       </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1817,6 +1852,9 @@
       <c r="AG12" t="n">
         <v>0</v>
       </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1934,6 +1972,9 @@
       <c r="AG13" t="n">
         <v>0</v>
       </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2051,6 +2092,9 @@
       <c r="AG14" t="n">
         <v>0</v>
       </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2168,6 +2212,9 @@
       <c r="AG15" t="n">
         <v>0</v>
       </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2283,6 +2330,9 @@
       <c r="AG16" t="n">
         <v>0</v>
       </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2400,6 +2450,9 @@
       <c r="AG17" t="n">
         <v>0</v>
       </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2515,6 +2568,9 @@
       <c r="AG18" t="n">
         <v>0</v>
       </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2634,6 +2690,9 @@
       <c r="AG19" t="n">
         <v>0</v>
       </c>
+      <c r="AH19" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2751,6 +2810,9 @@
       <c r="AG20" t="n">
         <v>0</v>
       </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2868,6 +2930,9 @@
       <c r="AG21" t="n">
         <v>0</v>
       </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2985,6 +3050,9 @@
       <c r="AG22" t="n">
         <v>0</v>
       </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3102,6 +3170,9 @@
       <c r="AG23" t="n">
         <v>0</v>
       </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3219,6 +3290,9 @@
       <c r="AG24" t="n">
         <v>0</v>
       </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3336,6 +3410,9 @@
       <c r="AG25" t="n">
         <v>0</v>
       </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3453,6 +3530,9 @@
       <c r="AG26" t="n">
         <v>0</v>
       </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3570,6 +3650,9 @@
       <c r="AG27" t="n">
         <v>0</v>
       </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3687,6 +3770,9 @@
       <c r="AG28" t="n">
         <v>0</v>
       </c>
+      <c r="AH28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3804,6 +3890,9 @@
       <c r="AG29" t="n">
         <v>0</v>
       </c>
+      <c r="AH29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3921,6 +4010,9 @@
       <c r="AG30" t="n">
         <v>0</v>
       </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4040,6 +4132,9 @@
       <c r="AG31" t="n">
         <v>0</v>
       </c>
+      <c r="AH31" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4157,6 +4252,9 @@
       <c r="AG32" t="n">
         <v>0</v>
       </c>
+      <c r="AH32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4274,6 +4372,9 @@
       <c r="AG33" t="n">
         <v>0</v>
       </c>
+      <c r="AH33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4391,6 +4492,9 @@
       <c r="AG34" t="n">
         <v>0</v>
       </c>
+      <c r="AH34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4508,6 +4612,9 @@
       <c r="AG35" t="n">
         <v>0</v>
       </c>
+      <c r="AH35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4625,6 +4732,9 @@
       <c r="AG36" t="n">
         <v>0</v>
       </c>
+      <c r="AH36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4742,6 +4852,9 @@
       <c r="AG37" t="n">
         <v>0</v>
       </c>
+      <c r="AH37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4859,6 +4972,9 @@
       <c r="AG38" t="n">
         <v>0</v>
       </c>
+      <c r="AH38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4976,6 +5092,9 @@
       <c r="AG39" t="n">
         <v>0</v>
       </c>
+      <c r="AH39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5093,6 +5212,9 @@
       <c r="AG40" t="n">
         <v>0</v>
       </c>
+      <c r="AH40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5210,6 +5332,9 @@
       <c r="AG41" t="n">
         <v>0</v>
       </c>
+      <c r="AH41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5325,6 +5450,9 @@
       <c r="AG42" t="n">
         <v>0</v>
       </c>
+      <c r="AH42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5442,6 +5570,9 @@
       <c r="AG43" t="n">
         <v>0</v>
       </c>
+      <c r="AH43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5559,6 +5690,9 @@
       <c r="AG44" t="n">
         <v>0</v>
       </c>
+      <c r="AH44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5676,6 +5810,9 @@
       <c r="AG45" t="n">
         <v>0</v>
       </c>
+      <c r="AH45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5791,6 +5928,9 @@
       <c r="AG46" t="n">
         <v>0</v>
       </c>
+      <c r="AH46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5908,6 +6048,9 @@
       <c r="AG47" t="n">
         <v>0</v>
       </c>
+      <c r="AH47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6025,6 +6168,9 @@
       <c r="AG48" t="n">
         <v>0</v>
       </c>
+      <c r="AH48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -6142,6 +6288,9 @@
       <c r="AG49" t="n">
         <v>0</v>
       </c>
+      <c r="AH49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -6259,6 +6408,9 @@
       <c r="AG50" t="n">
         <v>0</v>
       </c>
+      <c r="AH50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -6376,6 +6528,9 @@
       <c r="AG51" t="n">
         <v>0</v>
       </c>
+      <c r="AH51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -6493,6 +6648,9 @@
       <c r="AG52" t="n">
         <v>0</v>
       </c>
+      <c r="AH52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6610,6 +6768,9 @@
       <c r="AG53" t="n">
         <v>0</v>
       </c>
+      <c r="AH53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6727,6 +6888,9 @@
       <c r="AG54" t="n">
         <v>0</v>
       </c>
+      <c r="AH54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6844,6 +7008,9 @@
       <c r="AG55" t="n">
         <v>0</v>
       </c>
+      <c r="AH55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -6961,6 +7128,9 @@
       <c r="AG56" t="n">
         <v>0</v>
       </c>
+      <c r="AH56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -7078,6 +7248,9 @@
       <c r="AG57" t="n">
         <v>0</v>
       </c>
+      <c r="AH57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -7193,6 +7366,9 @@
       <c r="AG58" t="n">
         <v>0</v>
       </c>
+      <c r="AH58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -7310,6 +7486,9 @@
       <c r="AG59" t="n">
         <v>0</v>
       </c>
+      <c r="AH59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -7427,6 +7606,9 @@
       <c r="AG60" t="n">
         <v>0</v>
       </c>
+      <c r="AH60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7544,6 +7726,9 @@
       <c r="AG61" t="n">
         <v>0</v>
       </c>
+      <c r="AH61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7661,6 +7846,9 @@
       <c r="AG62" t="n">
         <v>0</v>
       </c>
+      <c r="AH62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -7778,6 +7966,9 @@
       <c r="AG63" t="n">
         <v>0</v>
       </c>
+      <c r="AH63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -7897,6 +8088,9 @@
       <c r="AG64" t="n">
         <v>0</v>
       </c>
+      <c r="AH64" t="n">
+        <v>8.949999999999999</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8014,6 +8208,9 @@
       <c r="AG65" t="n">
         <v>0</v>
       </c>
+      <c r="AH65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -8131,6 +8328,9 @@
       <c r="AG66" t="n">
         <v>0</v>
       </c>
+      <c r="AH66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -8248,6 +8448,9 @@
       <c r="AG67" t="n">
         <v>0</v>
       </c>
+      <c r="AH67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -8365,6 +8568,9 @@
       <c r="AG68" t="n">
         <v>0</v>
       </c>
+      <c r="AH68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -8482,6 +8688,9 @@
       <c r="AG69" t="n">
         <v>0</v>
       </c>
+      <c r="AH69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -8599,6 +8808,9 @@
       <c r="AG70" t="n">
         <v>0</v>
       </c>
+      <c r="AH70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -8716,6 +8928,9 @@
       <c r="AG71" t="n">
         <v>0</v>
       </c>
+      <c r="AH71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -8833,6 +9048,9 @@
       <c r="AG72" t="n">
         <v>0</v>
       </c>
+      <c r="AH72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -8950,6 +9168,9 @@
       <c r="AG73" t="n">
         <v>0</v>
       </c>
+      <c r="AH73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -9067,6 +9288,9 @@
       <c r="AG74" t="n">
         <v>0</v>
       </c>
+      <c r="AH74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -9184,6 +9408,9 @@
       <c r="AG75" t="n">
         <v>0</v>
       </c>
+      <c r="AH75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -9301,6 +9528,9 @@
       <c r="AG76" t="n">
         <v>0</v>
       </c>
+      <c r="AH76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -9418,6 +9648,9 @@
       <c r="AG77" t="n">
         <v>0</v>
       </c>
+      <c r="AH77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -9535,6 +9768,9 @@
       <c r="AG78" t="n">
         <v>0</v>
       </c>
+      <c r="AH78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -9652,6 +9888,9 @@
       <c r="AG79" t="n">
         <v>0</v>
       </c>
+      <c r="AH79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -9769,6 +10008,9 @@
       <c r="AG80" t="n">
         <v>0</v>
       </c>
+      <c r="AH80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -9884,6 +10126,9 @@
       <c r="AG81" t="n">
         <v>0</v>
       </c>
+      <c r="AH81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -9999,6 +10244,9 @@
         <v>0</v>
       </c>
       <c r="AG82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10116,6 +10364,9 @@
       <c r="AG83" t="n">
         <v>0</v>
       </c>
+      <c r="AH83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -10231,6 +10482,9 @@
       <c r="AG84" t="n">
         <v>0</v>
       </c>
+      <c r="AH84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -10346,6 +10600,9 @@
       <c r="AG85" t="n">
         <v>0</v>
       </c>
+      <c r="AH85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -10463,6 +10720,9 @@
       <c r="AG86" t="n">
         <v>0</v>
       </c>
+      <c r="AH86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -10580,6 +10840,9 @@
       <c r="AG87" t="n">
         <v>0</v>
       </c>
+      <c r="AH87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -10695,6 +10958,9 @@
       <c r="AG88" t="n">
         <v>0</v>
       </c>
+      <c r="AH88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -10810,6 +11076,9 @@
       <c r="AG89" t="n">
         <v>0</v>
       </c>
+      <c r="AH89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -10925,6 +11194,9 @@
       <c r="AG90" t="n">
         <v>0</v>
       </c>
+      <c r="AH90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -11042,6 +11314,9 @@
       <c r="AG91" t="n">
         <v>0</v>
       </c>
+      <c r="AH91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -11159,6 +11434,9 @@
       <c r="AG92" t="n">
         <v>0</v>
       </c>
+      <c r="AH92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -11278,6 +11556,9 @@
       <c r="AG93" t="n">
         <v>0</v>
       </c>
+      <c r="AH93" t="n">
+        <v>2.85</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -11395,6 +11676,9 @@
       <c r="AG94" t="n">
         <v>0</v>
       </c>
+      <c r="AH94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -11510,6 +11794,9 @@
       <c r="AG95" t="n">
         <v>0</v>
       </c>
+      <c r="AH95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -11625,6 +11912,9 @@
       <c r="AG96" t="n">
         <v>0</v>
       </c>
+      <c r="AH96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -11742,6 +12032,9 @@
       <c r="AG97" t="n">
         <v>0</v>
       </c>
+      <c r="AH97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -11857,6 +12150,9 @@
       <c r="AG98" t="n">
         <v>0</v>
       </c>
+      <c r="AH98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -11974,6 +12270,9 @@
       <c r="AG99" t="n">
         <v>0</v>
       </c>
+      <c r="AH99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -12091,6 +12390,9 @@
       <c r="AG100" t="n">
         <v>0</v>
       </c>
+      <c r="AH100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -12206,6 +12508,9 @@
       <c r="AG101" t="n">
         <v>0</v>
       </c>
+      <c r="AH101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -12323,6 +12628,9 @@
       <c r="AG102" t="n">
         <v>0</v>
       </c>
+      <c r="AH102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -12440,6 +12748,9 @@
       <c r="AG103" t="n">
         <v>0</v>
       </c>
+      <c r="AH103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -12555,6 +12866,9 @@
       <c r="AG104" t="n">
         <v>0</v>
       </c>
+      <c r="AH104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -12672,6 +12986,9 @@
       <c r="AG105" t="n">
         <v>0</v>
       </c>
+      <c r="AH105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -12789,6 +13106,9 @@
       <c r="AG106" t="n">
         <v>0</v>
       </c>
+      <c r="AH106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -12904,6 +13224,9 @@
       <c r="AG107" t="n">
         <v>0</v>
       </c>
+      <c r="AH107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -13019,6 +13342,9 @@
       <c r="AG108" t="n">
         <v>0</v>
       </c>
+      <c r="AH108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -13136,6 +13462,9 @@
       <c r="AG109" t="n">
         <v>0</v>
       </c>
+      <c r="AH109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -13253,6 +13582,9 @@
       <c r="AG110" t="n">
         <v>0</v>
       </c>
+      <c r="AH110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -13368,6 +13700,9 @@
       <c r="AG111" t="n">
         <v>0</v>
       </c>
+      <c r="AH111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -13485,6 +13820,9 @@
       <c r="AG112" t="n">
         <v>0</v>
       </c>
+      <c r="AH112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -13600,6 +13938,9 @@
       <c r="AG113" t="n">
         <v>0</v>
       </c>
+      <c r="AH113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -13717,6 +14058,9 @@
       <c r="AG114" t="n">
         <v>0</v>
       </c>
+      <c r="AH114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -13834,6 +14178,9 @@
       <c r="AG115" t="n">
         <v>0</v>
       </c>
+      <c r="AH115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -13949,6 +14296,9 @@
       <c r="AG116" t="n">
         <v>0</v>
       </c>
+      <c r="AH116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -14068,6 +14418,9 @@
       <c r="AG117" t="n">
         <v>0</v>
       </c>
+      <c r="AH117" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -14185,6 +14538,9 @@
       <c r="AG118" t="n">
         <v>0</v>
       </c>
+      <c r="AH118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -14302,6 +14658,9 @@
       <c r="AG119" t="n">
         <v>0</v>
       </c>
+      <c r="AH119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -14419,6 +14778,9 @@
       <c r="AG120" t="n">
         <v>0</v>
       </c>
+      <c r="AH120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -14536,6 +14898,9 @@
       <c r="AG121" t="n">
         <v>0</v>
       </c>
+      <c r="AH121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -14653,6 +15018,9 @@
       <c r="AG122" t="n">
         <v>0</v>
       </c>
+      <c r="AH122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -14770,6 +15138,9 @@
       <c r="AG123" t="n">
         <v>0</v>
       </c>
+      <c r="AH123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -14887,6 +15258,9 @@
       <c r="AG124" t="n">
         <v>0</v>
       </c>
+      <c r="AH124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -15002,6 +15376,9 @@
       <c r="AG125" t="n">
         <v>0</v>
       </c>
+      <c r="AH125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -15119,6 +15496,9 @@
       <c r="AG126" t="n">
         <v>0</v>
       </c>
+      <c r="AH126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -15234,6 +15614,9 @@
       <c r="AG127" t="n">
         <v>0</v>
       </c>
+      <c r="AH127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -15351,6 +15734,9 @@
       <c r="AG128" t="n">
         <v>0</v>
       </c>
+      <c r="AH128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -15468,6 +15854,9 @@
       <c r="AG129" t="n">
         <v>0</v>
       </c>
+      <c r="AH129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -15583,6 +15972,9 @@
       <c r="AG130" t="n">
         <v>0</v>
       </c>
+      <c r="AH130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -15700,6 +16092,9 @@
       <c r="AG131" t="n">
         <v>0</v>
       </c>
+      <c r="AH131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -15817,6 +16212,9 @@
       <c r="AG132" t="n">
         <v>0</v>
       </c>
+      <c r="AH132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -15932,6 +16330,9 @@
       <c r="AG133" t="n">
         <v>0</v>
       </c>
+      <c r="AH133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -16049,6 +16450,9 @@
       <c r="AG134" t="n">
         <v>0</v>
       </c>
+      <c r="AH134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -16166,6 +16570,9 @@
       <c r="AG135" t="n">
         <v>0</v>
       </c>
+      <c r="AH135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -16281,6 +16688,9 @@
         <v>0</v>
       </c>
       <c r="AG136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16398,6 +16808,9 @@
       <c r="AG137" t="n">
         <v>0</v>
       </c>
+      <c r="AH137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -16511,6 +16924,9 @@
       <c r="AG138" t="n">
         <v>0</v>
       </c>
+      <c r="AH138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -16626,6 +17042,9 @@
       <c r="AG139" t="n">
         <v>0</v>
       </c>
+      <c r="AH139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -16741,6 +17160,9 @@
       <c r="AG140" t="n">
         <v>0</v>
       </c>
+      <c r="AH140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -16856,6 +17278,9 @@
       <c r="AG141" t="n">
         <v>0</v>
       </c>
+      <c r="AH141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -16975,6 +17400,9 @@
       <c r="AG142" t="n">
         <v>0</v>
       </c>
+      <c r="AH142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -17094,6 +17522,9 @@
       <c r="AG143" t="n">
         <v>0</v>
       </c>
+      <c r="AH143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -17211,6 +17642,9 @@
       <c r="AG144" t="n">
         <v>0</v>
       </c>
+      <c r="AH144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -17328,6 +17762,9 @@
       <c r="AG145" t="n">
         <v>0</v>
       </c>
+      <c r="AH145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -17445,6 +17882,9 @@
         <v>0</v>
       </c>
       <c r="AG146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17562,6 +18002,9 @@
       <c r="AG147" t="n">
         <v>0</v>
       </c>
+      <c r="AH147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -17679,6 +18122,9 @@
       <c r="AG148" t="n">
         <v>0</v>
       </c>
+      <c r="AH148" t="n">
+        <v>5.04</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -17798,6 +18244,9 @@
       <c r="AG149" t="n">
         <v>0</v>
       </c>
+      <c r="AH149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -17917,6 +18366,9 @@
       <c r="AG150" t="n">
         <v>0</v>
       </c>
+      <c r="AH150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -18034,6 +18486,9 @@
       <c r="AG151" t="n">
         <v>0</v>
       </c>
+      <c r="AH151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -18151,6 +18606,9 @@
       <c r="AG152" t="n">
         <v>0</v>
       </c>
+      <c r="AH152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -18268,6 +18726,9 @@
       <c r="AG153" t="n">
         <v>0</v>
       </c>
+      <c r="AH153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -18387,6 +18848,9 @@
       <c r="AG154" t="n">
         <v>0</v>
       </c>
+      <c r="AH154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -18504,6 +18968,9 @@
       <c r="AG155" t="n">
         <v>0</v>
       </c>
+      <c r="AH155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -18621,6 +19088,9 @@
       <c r="AG156" t="n">
         <v>0</v>
       </c>
+      <c r="AH156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -18740,6 +19210,9 @@
       <c r="AG157" t="n">
         <v>0</v>
       </c>
+      <c r="AH157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -18859,6 +19332,9 @@
       <c r="AG158" t="n">
         <v>0</v>
       </c>
+      <c r="AH158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -18976,6 +19452,9 @@
       <c r="AG159" t="n">
         <v>0</v>
       </c>
+      <c r="AH159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -19093,6 +19572,9 @@
       <c r="AG160" t="n">
         <v>0</v>
       </c>
+      <c r="AH160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -19212,6 +19694,9 @@
       <c r="AG161" t="n">
         <v>0</v>
       </c>
+      <c r="AH161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -19329,6 +19814,9 @@
       <c r="AG162" t="n">
         <v>0</v>
       </c>
+      <c r="AH162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -19448,6 +19936,9 @@
       <c r="AG163" t="n">
         <v>0</v>
       </c>
+      <c r="AH163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -19567,6 +20058,9 @@
       <c r="AG164" t="n">
         <v>0</v>
       </c>
+      <c r="AH164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -19686,6 +20180,9 @@
       <c r="AG165" t="n">
         <v>0</v>
       </c>
+      <c r="AH165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -19805,6 +20302,9 @@
       <c r="AG166" t="n">
         <v>0</v>
       </c>
+      <c r="AH166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -19924,6 +20424,9 @@
       <c r="AG167" t="n">
         <v>0</v>
       </c>
+      <c r="AH167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -20043,6 +20546,9 @@
       <c r="AG168" t="n">
         <v>0</v>
       </c>
+      <c r="AH168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -20162,6 +20668,9 @@
       <c r="AG169" t="n">
         <v>0</v>
       </c>
+      <c r="AH169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -20279,6 +20788,9 @@
       <c r="AG170" t="n">
         <v>0</v>
       </c>
+      <c r="AH170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -20398,6 +20910,9 @@
       <c r="AG171" t="n">
         <v>0</v>
       </c>
+      <c r="AH171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -20517,6 +21032,9 @@
       <c r="AG172" t="n">
         <v>0</v>
       </c>
+      <c r="AH172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -20636,6 +21154,9 @@
       <c r="AG173" t="n">
         <v>0</v>
       </c>
+      <c r="AH173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -20755,6 +21276,9 @@
       <c r="AG174" t="n">
         <v>0</v>
       </c>
+      <c r="AH174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -20872,6 +21396,9 @@
       <c r="AG175" t="n">
         <v>0</v>
       </c>
+      <c r="AH175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -20991,6 +21518,9 @@
       <c r="AG176" t="n">
         <v>0</v>
       </c>
+      <c r="AH176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -21110,6 +21640,9 @@
       <c r="AG177" t="n">
         <v>0</v>
       </c>
+      <c r="AH177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -21227,6 +21760,9 @@
       <c r="AG178" t="n">
         <v>0</v>
       </c>
+      <c r="AH178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -21346,6 +21882,9 @@
       <c r="AG179" t="n">
         <v>0</v>
       </c>
+      <c r="AH179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -21463,6 +22002,9 @@
       <c r="AG180" t="n">
         <v>0</v>
       </c>
+      <c r="AH180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -21582,6 +22124,9 @@
       <c r="AG181" t="n">
         <v>0</v>
       </c>
+      <c r="AH181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -21701,6 +22246,9 @@
       <c r="AG182" t="n">
         <v>0</v>
       </c>
+      <c r="AH182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -21820,6 +22368,9 @@
       <c r="AG183" t="n">
         <v>0</v>
       </c>
+      <c r="AH183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -21939,6 +22490,9 @@
       <c r="AG184" t="n">
         <v>0</v>
       </c>
+      <c r="AH184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -22058,6 +22612,9 @@
       <c r="AG185" t="n">
         <v>0</v>
       </c>
+      <c r="AH185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -22175,6 +22732,9 @@
       <c r="AG186" t="n">
         <v>0</v>
       </c>
+      <c r="AH186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -22292,6 +22852,9 @@
       <c r="AG187" t="n">
         <v>0</v>
       </c>
+      <c r="AH187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -22411,6 +22974,9 @@
       <c r="AG188" t="n">
         <v>0</v>
       </c>
+      <c r="AH188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -22530,6 +23096,9 @@
       <c r="AG189" t="n">
         <v>0</v>
       </c>
+      <c r="AH189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -22649,6 +23218,9 @@
       <c r="AG190" t="n">
         <v>0</v>
       </c>
+      <c r="AH190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -22768,6 +23340,9 @@
       <c r="AG191" t="n">
         <v>0</v>
       </c>
+      <c r="AH191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -22887,6 +23462,9 @@
       <c r="AG192" t="n">
         <v>0</v>
       </c>
+      <c r="AH192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -23004,6 +23582,9 @@
       <c r="AG193" t="n">
         <v>0</v>
       </c>
+      <c r="AH193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -23123,6 +23704,9 @@
       <c r="AG194" t="n">
         <v>0</v>
       </c>
+      <c r="AH194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -23242,6 +23826,9 @@
       <c r="AG195" t="n">
         <v>0</v>
       </c>
+      <c r="AH195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -23361,6 +23948,9 @@
       <c r="AG196" t="n">
         <v>0</v>
       </c>
+      <c r="AH196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -23478,6 +24068,9 @@
         <v>0</v>
       </c>
       <c r="AG197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH197" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23595,6 +24188,9 @@
       <c r="AG198" t="n">
         <v>0</v>
       </c>
+      <c r="AH198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -23708,6 +24304,9 @@
       <c r="AG199" t="n">
         <v>0</v>
       </c>
+      <c r="AH199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -23823,6 +24422,9 @@
       <c r="AG200" t="n">
         <v>0</v>
       </c>
+      <c r="AH200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -23936,6 +24538,9 @@
       <c r="AG201" t="n">
         <v>0</v>
       </c>
+      <c r="AH201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -24053,6 +24658,9 @@
       <c r="AG202" t="n">
         <v>0</v>
       </c>
+      <c r="AH202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -24170,6 +24778,9 @@
       <c r="AG203" t="n">
         <v>0</v>
       </c>
+      <c r="AH203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -24287,6 +24898,9 @@
       <c r="AG204" t="n">
         <v>0</v>
       </c>
+      <c r="AH204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -24402,6 +25016,9 @@
       <c r="AG205" t="n">
         <v>0</v>
       </c>
+      <c r="AH205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -24519,6 +25136,9 @@
       <c r="AG206" t="n">
         <v>0</v>
       </c>
+      <c r="AH206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -24634,6 +25254,9 @@
       <c r="AG207" t="n">
         <v>0</v>
       </c>
+      <c r="AH207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -24751,6 +25374,9 @@
       <c r="AG208" t="n">
         <v>0</v>
       </c>
+      <c r="AH208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -24868,6 +25494,9 @@
       <c r="AG209" t="n">
         <v>0</v>
       </c>
+      <c r="AH209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -24985,6 +25614,9 @@
       <c r="AG210" t="n">
         <v>0</v>
       </c>
+      <c r="AH210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -25104,6 +25736,9 @@
       <c r="AG211" t="n">
         <v>0</v>
       </c>
+      <c r="AH211" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -25221,6 +25856,9 @@
       <c r="AG212" t="n">
         <v>0</v>
       </c>
+      <c r="AH212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -25336,6 +25974,9 @@
       <c r="AG213" t="n">
         <v>0</v>
       </c>
+      <c r="AH213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -25451,6 +26092,9 @@
       <c r="AG214" t="n">
         <v>0</v>
       </c>
+      <c r="AH214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -25568,6 +26212,9 @@
       <c r="AG215" t="n">
         <v>0</v>
       </c>
+      <c r="AH215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -25685,6 +26332,9 @@
       <c r="AG216" t="n">
         <v>0</v>
       </c>
+      <c r="AH216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -25800,6 +26450,9 @@
       <c r="AG217" t="n">
         <v>0</v>
       </c>
+      <c r="AH217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -25917,6 +26570,9 @@
       <c r="AG218" t="n">
         <v>0</v>
       </c>
+      <c r="AH218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -26034,6 +26690,9 @@
       <c r="AG219" t="n">
         <v>0</v>
       </c>
+      <c r="AH219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -26149,6 +26808,9 @@
       <c r="AG220" t="n">
         <v>0</v>
       </c>
+      <c r="AH220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -26266,6 +26928,9 @@
       <c r="AG221" t="n">
         <v>0</v>
       </c>
+      <c r="AH221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -26381,6 +27046,9 @@
       <c r="AG222" t="n">
         <v>0</v>
       </c>
+      <c r="AH222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -26498,6 +27166,9 @@
       <c r="AG223" t="n">
         <v>0</v>
       </c>
+      <c r="AH223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -26615,6 +27286,9 @@
       <c r="AG224" t="n">
         <v>0</v>
       </c>
+      <c r="AH224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -26732,6 +27406,9 @@
       <c r="AG225" t="n">
         <v>0</v>
       </c>
+      <c r="AH225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -26849,6 +27526,9 @@
       <c r="AG226" t="n">
         <v>0</v>
       </c>
+      <c r="AH226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -26966,6 +27646,9 @@
         <v>0</v>
       </c>
       <c r="AG227" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH227" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27085,6 +27768,9 @@
       <c r="AG228" t="n">
         <v>0</v>
       </c>
+      <c r="AH228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -27202,6 +27888,9 @@
       <c r="AG229" t="n">
         <v>0</v>
       </c>
+      <c r="AH229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -27319,6 +28008,9 @@
       <c r="AG230" t="n">
         <v>0</v>
       </c>
+      <c r="AH230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -27436,6 +28128,9 @@
       <c r="AG231" t="n">
         <v>0</v>
       </c>
+      <c r="AH231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -27553,6 +28248,9 @@
       <c r="AG232" t="n">
         <v>0</v>
       </c>
+      <c r="AH232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -27670,6 +28368,9 @@
       <c r="AG233" t="n">
         <v>0</v>
       </c>
+      <c r="AH233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -27787,6 +28488,9 @@
       <c r="AG234" t="n">
         <v>0</v>
       </c>
+      <c r="AH234" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -27904,6 +28608,9 @@
       <c r="AG235" t="n">
         <v>0</v>
       </c>
+      <c r="AH235" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -28021,6 +28728,9 @@
       <c r="AG236" t="n">
         <v>0</v>
       </c>
+      <c r="AH236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -28136,6 +28846,9 @@
       <c r="AG237" t="n">
         <v>0</v>
       </c>
+      <c r="AH237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -28253,6 +28966,9 @@
       <c r="AG238" t="n">
         <v>0</v>
       </c>
+      <c r="AH238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -28370,6 +29086,9 @@
       <c r="AG239" t="n">
         <v>0</v>
       </c>
+      <c r="AH239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -28485,6 +29204,9 @@
         <v>0</v>
       </c>
       <c r="AG240" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH240" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28602,6 +29324,9 @@
       <c r="AG241" t="n">
         <v>0</v>
       </c>
+      <c r="AH241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -28719,6 +29444,9 @@
       <c r="AG242" t="n">
         <v>0</v>
       </c>
+      <c r="AH242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -28836,6 +29564,9 @@
       <c r="AG243" t="n">
         <v>0</v>
       </c>
+      <c r="AH243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -28953,6 +29684,9 @@
       <c r="AG244" t="n">
         <v>0</v>
       </c>
+      <c r="AH244" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -29070,6 +29804,9 @@
       <c r="AG245" t="n">
         <v>0</v>
       </c>
+      <c r="AH245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -29185,6 +29922,9 @@
       <c r="AG246" t="n">
         <v>0</v>
       </c>
+      <c r="AH246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -29300,6 +30040,9 @@
         <v>0</v>
       </c>
       <c r="AG247" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH247" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29417,6 +30160,9 @@
       <c r="AG248" t="n">
         <v>0</v>
       </c>
+      <c r="AH248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -29532,6 +30278,9 @@
       <c r="AG249" t="n">
         <v>0</v>
       </c>
+      <c r="AH249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -29647,6 +30396,9 @@
       <c r="AG250" t="n">
         <v>0</v>
       </c>
+      <c r="AH250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -29762,6 +30514,9 @@
       <c r="AG251" t="n">
         <v>0</v>
       </c>
+      <c r="AH251" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -29877,6 +30632,9 @@
       <c r="AG252" t="n">
         <v>0</v>
       </c>
+      <c r="AH252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -29992,6 +30750,9 @@
       <c r="AG253" t="n">
         <v>0</v>
       </c>
+      <c r="AH253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -30107,6 +30868,9 @@
       <c r="AG254" t="n">
         <v>0</v>
       </c>
+      <c r="AH254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -30222,6 +30986,9 @@
       <c r="AG255" t="n">
         <v>0</v>
       </c>
+      <c r="AH255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -30337,6 +31104,9 @@
       <c r="AG256" t="n">
         <v>0</v>
       </c>
+      <c r="AH256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -30452,6 +31222,9 @@
       <c r="AG257" t="n">
         <v>0</v>
       </c>
+      <c r="AH257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -30567,6 +31340,9 @@
       <c r="AG258" t="n">
         <v>0</v>
       </c>
+      <c r="AH258" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -30680,6 +31456,9 @@
       <c r="AG259" t="n">
         <v>0</v>
       </c>
+      <c r="AH259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -30795,6 +31574,9 @@
       <c r="AG260" t="n">
         <v>0</v>
       </c>
+      <c r="AH260" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -30910,6 +31692,9 @@
       <c r="AG261" t="n">
         <v>0</v>
       </c>
+      <c r="AH261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -31025,6 +31810,9 @@
         <v>0</v>
       </c>
       <c r="AG262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH262" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31140,6 +31928,9 @@
       <c r="AG263" t="n">
         <v>0</v>
       </c>
+      <c r="AH263" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -31255,6 +32046,9 @@
       <c r="AG264" t="n">
         <v>0</v>
       </c>
+      <c r="AH264" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -31370,6 +32164,9 @@
       <c r="AG265" t="n">
         <v>0</v>
       </c>
+      <c r="AH265" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -31485,6 +32282,9 @@
       <c r="AG266" t="n">
         <v>0</v>
       </c>
+      <c r="AH266" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -31600,6 +32400,9 @@
         <v>0</v>
       </c>
       <c r="AG267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH267" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31715,6 +32518,9 @@
       <c r="AG268" t="n">
         <v>0</v>
       </c>
+      <c r="AH268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -31830,6 +32636,9 @@
       <c r="AG269" t="n">
         <v>0</v>
       </c>
+      <c r="AH269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -31945,6 +32754,9 @@
       <c r="AG270" t="n">
         <v>0</v>
       </c>
+      <c r="AH270" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -32058,6 +32870,9 @@
       <c r="AG271" t="n">
         <v>0</v>
       </c>
+      <c r="AH271" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -32173,6 +32988,9 @@
       <c r="AG272" t="n">
         <v>0</v>
       </c>
+      <c r="AH272" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -32288,6 +33106,9 @@
       <c r="AG273" t="n">
         <v>0</v>
       </c>
+      <c r="AH273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -32403,6 +33224,9 @@
       <c r="AG274" t="n">
         <v>0</v>
       </c>
+      <c r="AH274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -32518,6 +33342,9 @@
       <c r="AG275" t="n">
         <v>0</v>
       </c>
+      <c r="AH275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -32635,6 +33462,9 @@
       <c r="AG276" t="n">
         <v>0</v>
       </c>
+      <c r="AH276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -32752,6 +33582,9 @@
       <c r="AG277" t="n">
         <v>0</v>
       </c>
+      <c r="AH277" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -32869,6 +33702,9 @@
       <c r="AG278" t="n">
         <v>0</v>
       </c>
+      <c r="AH278" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -32984,6 +33820,9 @@
         <v>0</v>
       </c>
       <c r="AG279" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH279" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33101,6 +33940,9 @@
       <c r="AG280" t="n">
         <v>0</v>
       </c>
+      <c r="AH280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -33216,6 +34058,9 @@
       <c r="AG281" t="n">
         <v>0</v>
       </c>
+      <c r="AH281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -33331,6 +34176,9 @@
       <c r="AG282" t="n">
         <v>0</v>
       </c>
+      <c r="AH282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -33446,6 +34294,9 @@
       <c r="AG283" t="n">
         <v>0</v>
       </c>
+      <c r="AH283" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -33561,6 +34412,9 @@
       <c r="AG284" t="n">
         <v>0</v>
       </c>
+      <c r="AH284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -33676,6 +34530,9 @@
       <c r="AG285" t="n">
         <v>0</v>
       </c>
+      <c r="AH285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -33789,6 +34646,9 @@
       <c r="AG286" t="n">
         <v>0</v>
       </c>
+      <c r="AH286" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -33904,6 +34764,9 @@
       <c r="AG287" t="n">
         <v>0</v>
       </c>
+      <c r="AH287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -34019,6 +34882,9 @@
       <c r="AG288" t="n">
         <v>0</v>
       </c>
+      <c r="AH288" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -34134,6 +35000,9 @@
       <c r="AG289" t="n">
         <v>0</v>
       </c>
+      <c r="AH289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -34249,6 +35118,9 @@
       <c r="AG290" t="n">
         <v>0</v>
       </c>
+      <c r="AH290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -34364,6 +35236,9 @@
       <c r="AG291" t="n">
         <v>0</v>
       </c>
+      <c r="AH291" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -34481,6 +35356,9 @@
       <c r="AG292" t="n">
         <v>0</v>
       </c>
+      <c r="AH292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -34596,6 +35474,9 @@
       <c r="AG293" t="n">
         <v>0</v>
       </c>
+      <c r="AH293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -34713,6 +35594,9 @@
       <c r="AG294" t="n">
         <v>0</v>
       </c>
+      <c r="AH294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -34828,6 +35712,9 @@
         <v>0</v>
       </c>
       <c r="AG295" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH295" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34947,6 +35834,9 @@
       <c r="AG296" t="n">
         <v>0</v>
       </c>
+      <c r="AH296" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -35062,6 +35952,9 @@
       <c r="AG297" t="n">
         <v>0</v>
       </c>
+      <c r="AH297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -35181,6 +36074,9 @@
       <c r="AG298" t="n">
         <v>0</v>
       </c>
+      <c r="AH298" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -35298,6 +36194,9 @@
       <c r="AG299" t="n">
         <v>0</v>
       </c>
+      <c r="AH299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -35415,6 +36314,9 @@
       <c r="AG300" t="n">
         <v>0</v>
       </c>
+      <c r="AH300" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -35532,6 +36434,9 @@
       <c r="AG301" t="n">
         <v>0</v>
       </c>
+      <c r="AH301" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -35647,6 +36552,9 @@
         <v>0</v>
       </c>
       <c r="AG302" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH302" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35764,6 +36672,9 @@
       <c r="AG303" t="n">
         <v>0</v>
       </c>
+      <c r="AH303" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -35877,6 +36788,9 @@
         <v>0</v>
       </c>
       <c r="AG304" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH304" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35994,6 +36908,9 @@
       <c r="AG305" t="n">
         <v>0</v>
       </c>
+      <c r="AH305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -36109,6 +37026,9 @@
       <c r="AG306" t="n">
         <v>0</v>
       </c>
+      <c r="AH306" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -36226,6 +37146,9 @@
       <c r="AG307" t="n">
         <v>0</v>
       </c>
+      <c r="AH307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -36343,6 +37266,9 @@
       <c r="AG308" t="n">
         <v>0</v>
       </c>
+      <c r="AH308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -36461,6 +37387,9 @@
       </c>
       <c r="AG309" t="n">
         <v>0</v>
+      </c>
+      <c r="AH309" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="310">
@@ -36577,6 +37506,9 @@
       <c r="AG310" t="n">
         <v>0</v>
       </c>
+      <c r="AH310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -36692,6 +37624,9 @@
       <c r="AG311" t="n">
         <v>0</v>
       </c>
+      <c r="AH311" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -36805,6 +37740,9 @@
         <v>0</v>
       </c>
       <c r="AG312" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH312" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36922,6 +37860,9 @@
       <c r="AG313" t="n">
         <v>0</v>
       </c>
+      <c r="AH313" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -37035,6 +37976,9 @@
       <c r="AG314" t="n">
         <v>0</v>
       </c>
+      <c r="AH314" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -37150,6 +38094,9 @@
       <c r="AG315" t="n">
         <v>0</v>
       </c>
+      <c r="AH315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -37265,6 +38212,9 @@
       <c r="AG316" t="n">
         <v>0</v>
       </c>
+      <c r="AH316" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -37380,6 +38330,9 @@
       <c r="AG317" t="n">
         <v>0</v>
       </c>
+      <c r="AH317" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -37493,6 +38446,9 @@
         <v>0</v>
       </c>
       <c r="AG318" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH318" t="n">
         <v>0</v>
       </c>
     </row>
@@ -37610,6 +38566,9 @@
       <c r="AG319" t="n">
         <v>0</v>
       </c>
+      <c r="AH319" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -37725,6 +38684,9 @@
       <c r="AG320" t="n">
         <v>0</v>
       </c>
+      <c r="AH320" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -37840,6 +38802,9 @@
       <c r="AG321" t="n">
         <v>0</v>
       </c>
+      <c r="AH321" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -37957,6 +38922,9 @@
       <c r="AG322" t="n">
         <v>0</v>
       </c>
+      <c r="AH322" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -38072,6 +39040,9 @@
         <v>0</v>
       </c>
       <c r="AG323" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH323" t="n">
         <v>0</v>
       </c>
     </row>
@@ -38187,6 +39158,9 @@
       <c r="AG324" t="n">
         <v>0</v>
       </c>
+      <c r="AH324" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -38304,6 +39278,9 @@
       <c r="AG325" t="n">
         <v>0</v>
       </c>
+      <c r="AH325" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -38423,6 +39400,9 @@
       <c r="AG326" t="n">
         <v>0</v>
       </c>
+      <c r="AH326" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -38540,6 +39520,9 @@
       <c r="AG327" t="n">
         <v>0</v>
       </c>
+      <c r="AH327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -38657,6 +39640,9 @@
       <c r="AG328" t="n">
         <v>0</v>
       </c>
+      <c r="AH328" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -38774,6 +39760,9 @@
       <c r="AG329" t="n">
         <v>0</v>
       </c>
+      <c r="AH329" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -38889,6 +39878,9 @@
         <v>0</v>
       </c>
       <c r="AG330" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH330" t="n">
         <v>0</v>
       </c>
     </row>
@@ -39006,6 +39998,9 @@
       <c r="AG331" t="n">
         <v>0</v>
       </c>
+      <c r="AH331" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -39121,6 +40116,9 @@
       <c r="AG332" t="n">
         <v>0</v>
       </c>
+      <c r="AH332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -39236,6 +40234,9 @@
       <c r="AG333" t="n">
         <v>0</v>
       </c>
+      <c r="AH333" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -39351,6 +40352,9 @@
       <c r="AG334" t="n">
         <v>0</v>
       </c>
+      <c r="AH334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -39466,6 +40470,9 @@
       <c r="AG335" t="n">
         <v>0</v>
       </c>
+      <c r="AH335" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -39579,6 +40586,9 @@
       <c r="AG336" t="n">
         <v>0</v>
       </c>
+      <c r="AH336" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -39694,6 +40704,9 @@
       <c r="AG337" t="n">
         <v>0</v>
       </c>
+      <c r="AH337" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -39809,6 +40822,9 @@
       <c r="AG338" t="n">
         <v>0</v>
       </c>
+      <c r="AH338" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -39924,6 +40940,9 @@
       <c r="AG339" t="n">
         <v>0</v>
       </c>
+      <c r="AH339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -40037,6 +41056,9 @@
       <c r="AG340" t="n">
         <v>0</v>
       </c>
+      <c r="AH340" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -40152,6 +41174,9 @@
       <c r="AG341" t="n">
         <v>0</v>
       </c>
+      <c r="AH341" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -40265,6 +41290,9 @@
       <c r="AG342" t="n">
         <v>0</v>
       </c>
+      <c r="AH342" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -40378,6 +41406,9 @@
       <c r="AG343" t="n">
         <v>0</v>
       </c>
+      <c r="AH343" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -40493,6 +41524,9 @@
       <c r="AG344" t="n">
         <v>0</v>
       </c>
+      <c r="AH344" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -40608,6 +41642,9 @@
       <c r="AG345" t="n">
         <v>0</v>
       </c>
+      <c r="AH345" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -40725,6 +41762,9 @@
       <c r="AG346" t="n">
         <v>0</v>
       </c>
+      <c r="AH346" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -40842,6 +41882,9 @@
       <c r="AG347" t="n">
         <v>0</v>
       </c>
+      <c r="AH347" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -40957,6 +42000,9 @@
         <v>0</v>
       </c>
       <c r="AG348" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH348" t="n">
         <v>0</v>
       </c>
     </row>
@@ -41072,6 +42118,9 @@
       <c r="AG349" t="n">
         <v>0</v>
       </c>
+      <c r="AH349" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -41187,6 +42236,9 @@
       <c r="AG350" t="n">
         <v>0</v>
       </c>
+      <c r="AH350" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -41302,6 +42354,9 @@
       <c r="AG351" t="n">
         <v>0</v>
       </c>
+      <c r="AH351" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -41417,6 +42472,9 @@
       <c r="AG352" t="n">
         <v>0</v>
       </c>
+      <c r="AH352" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -41530,6 +42588,9 @@
       <c r="AG353" t="n">
         <v>0</v>
       </c>
+      <c r="AH353" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -41645,6 +42706,9 @@
       <c r="AG354" t="n">
         <v>0</v>
       </c>
+      <c r="AH354" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -41760,6 +42824,9 @@
       <c r="AG355" t="n">
         <v>0</v>
       </c>
+      <c r="AH355" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -41877,6 +42944,9 @@
       <c r="AG356" t="n">
         <v>0</v>
       </c>
+      <c r="AH356" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -41994,6 +43064,9 @@
       <c r="AG357" t="n">
         <v>0</v>
       </c>
+      <c r="AH357" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -42109,6 +43182,9 @@
       <c r="AG358" t="n">
         <v>0</v>
       </c>
+      <c r="AH358" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -42224,6 +43300,9 @@
       <c r="AG359" t="n">
         <v>0</v>
       </c>
+      <c r="AH359" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -42339,6 +43418,9 @@
       <c r="AG360" t="n">
         <v>0</v>
       </c>
+      <c r="AH360" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -42456,6 +43538,9 @@
       <c r="AG361" t="n">
         <v>0</v>
       </c>
+      <c r="AH361" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -42573,6 +43658,9 @@
       <c r="AG362" t="n">
         <v>0</v>
       </c>
+      <c r="AH362" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -42688,6 +43776,9 @@
         <v>0</v>
       </c>
       <c r="AG363" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH363" t="n">
         <v>0</v>
       </c>
     </row>
@@ -42805,6 +43896,9 @@
       <c r="AG364" t="n">
         <v>0</v>
       </c>
+      <c r="AH364" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -42922,6 +44016,9 @@
       <c r="AG365" t="n">
         <v>0</v>
       </c>
+      <c r="AH365" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -43039,6 +44136,9 @@
       <c r="AG366" t="n">
         <v>0</v>
       </c>
+      <c r="AH366" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -43156,6 +44256,9 @@
       <c r="AG367" t="n">
         <v>0</v>
       </c>
+      <c r="AH367" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -43271,6 +44374,9 @@
         <v>0</v>
       </c>
       <c r="AG368" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH368" t="n">
         <v>0</v>
       </c>
     </row>
@@ -43388,6 +44494,9 @@
       <c r="AG369" t="n">
         <v>0</v>
       </c>
+      <c r="AH369" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -43503,6 +44612,9 @@
       <c r="AG370" t="n">
         <v>0</v>
       </c>
+      <c r="AH370" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -43618,6 +44730,9 @@
       <c r="AG371" t="n">
         <v>0</v>
       </c>
+      <c r="AH371" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -43733,6 +44848,9 @@
       <c r="AG372" t="n">
         <v>0</v>
       </c>
+      <c r="AH372" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -43848,6 +44966,9 @@
       <c r="AG373" t="n">
         <v>0</v>
       </c>
+      <c r="AH373" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -43963,6 +45084,9 @@
       <c r="AG374" t="n">
         <v>0</v>
       </c>
+      <c r="AH374" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -44078,6 +45202,9 @@
       <c r="AG375" t="n">
         <v>0</v>
       </c>
+      <c r="AH375" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -44193,6 +45320,9 @@
       <c r="AG376" t="n">
         <v>0</v>
       </c>
+      <c r="AH376" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -44306,6 +45436,9 @@
       <c r="AG377" t="n">
         <v>0</v>
       </c>
+      <c r="AH377" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -44419,6 +45552,9 @@
       <c r="AG378" t="n">
         <v>0</v>
       </c>
+      <c r="AH378" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -44534,6 +45670,9 @@
       <c r="AG379" t="n">
         <v>0</v>
       </c>
+      <c r="AH379" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -44649,6 +45788,9 @@
       <c r="AG380" t="n">
         <v>0</v>
       </c>
+      <c r="AH380" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -44764,6 +45906,9 @@
       <c r="AG381" t="n">
         <v>0</v>
       </c>
+      <c r="AH381" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -44877,6 +46022,9 @@
       <c r="AG382" t="n">
         <v>0</v>
       </c>
+      <c r="AH382" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -44992,6 +46140,9 @@
       <c r="AG383" t="n">
         <v>0</v>
       </c>
+      <c r="AH383" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -45107,6 +46258,9 @@
       <c r="AG384" t="n">
         <v>0</v>
       </c>
+      <c r="AH384" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -45224,6 +46378,9 @@
       <c r="AG385" t="n">
         <v>0</v>
       </c>
+      <c r="AH385" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -45339,6 +46496,9 @@
         <v>0</v>
       </c>
       <c r="AG386" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH386" t="n">
         <v>0</v>
       </c>
     </row>
